--- a/html/Speciallægesystemer_excel.XLSX
+++ b/html/Speciallægesystemer_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34937432-2B6B-4C48-86F0-AF0722C24F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B531F908-D693-49EF-96BC-08CF7265B309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Speciallægesystemer">'Opdateret d. 12-05-2025'!$A$1:$F$59</definedName>
+    <definedName name="Speciallægesystemer">'Opdateret d. 16-05-2025'!$A$1:$F$59</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Speciallægesystemer_excel.XLSX
+++ b/html/Speciallægesystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B531F908-D693-49EF-96BC-08CF7265B309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363F4535-BE47-4594-A33E-6495FACF58BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Speciallægesystemer">'Opdateret d. 16-05-2025'!$A$1:$F$59</definedName>
+    <definedName name="Speciallægesystemer">'Opdateret d. 02-12-2025'!$A$1:$F$59</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Speciallægesystemer_excel.XLSX
+++ b/html/Speciallægesystemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363F4535-BE47-4594-A33E-6495FACF58BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838D6FD4-7ABC-4329-BAAC-51DB135AA9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Speciallægesystemer_excel.XLSX
+++ b/html/Speciallægesystemer_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838D6FD4-7ABC-4329-BAAC-51DB135AA9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED9CB77-0D63-46E3-BCC2-719D6265BB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Speciallægesystemer">'Opdateret d. 02-12-2025'!$A$1:$F$59</definedName>
+    <definedName name="Speciallægesystemer">'Opdateret d. 05-12-2025'!$A$1:$F$59</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -652,9 +652,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -708,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -725,7 +725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -742,7 +742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -756,7 +756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -770,7 +770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -784,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -798,7 +798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -826,7 +826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -840,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -854,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -868,7 +868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -882,7 +882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -896,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -927,7 +927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -941,7 +941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -955,7 +955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -969,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -983,7 +983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>92</v>
       </c>

--- a/html/Speciallægesystemer_excel.XLSX
+++ b/html/Speciallægesystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED9CB77-0D63-46E3-BCC2-719D6265BB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D23E57-46BA-4F14-809A-609270852B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Speciallægesystemer">'Opdateret d. 05-12-2025'!$A$1:$F$59</definedName>
+    <definedName name="Speciallægesystemer">'Opdateret d. 19-12-2025'!$A$1:$F$59</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -652,9 +652,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -708,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -725,7 +725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -742,7 +742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -756,7 +756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -770,7 +770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -784,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -798,7 +798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -826,7 +826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -840,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -854,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -868,7 +868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -882,7 +882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -896,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -927,7 +927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -941,7 +941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -955,7 +955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -969,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -983,7 +983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>92</v>
       </c>
